--- a/biology/Zoologie/Actinopus_longipalpis/Actinopus_longipalpis.xlsx
+++ b/biology/Zoologie/Actinopus_longipalpis/Actinopus_longipalpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actinopus longipalpis est une espèce d'araignées mygalomorphes de la famille des Actinopodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinopus longipalpis est une espèce d'araignées mygalomorphes de la famille des Actinopodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans les provinces d'Entre Ríos et de Misiones, en Uruguay dans le département d'Artigas et au Paraguay[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans les provinces d'Entre Ríos et de Misiones, en Uruguay dans le département d'Artigas et au Paraguay.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Ríos-Tamayo et Goloboff en 2018 mesure 15,04 mm et la femelle 13,32 mm[2].
-Les mâles décrits par Sherwood, Ríos-Tamayo, Pett et Hinchcliffe en 2023 mesurent 21,5 mm et 22,1 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Ríos-Tamayo et Goloboff en 2018 mesure 15,04 mm et la femelle 13,32 mm.
+Les mâles décrits par Sherwood, Ríos-Tamayo, Pett et Hinchcliffe en 2023 mesurent 21,5 mm et 22,1 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par C. L. Koch en 1842.
-Pachyloscelis liodon[4] et Actinopus pindapoy[5] ont été placées en synonymie par Sherwood, Ríos-Tamayo, Pett et Hinchcliffe en 2023[3].
+Pachyloscelis liodon et Actinopus pindapoy ont été placées en synonymie par Sherwood, Ríos-Tamayo, Pett et Hinchcliffe en 2023.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1842 : Die Arachniden. Nürnberg, vol. 9, p. 57-108 (texte intégral).</t>
         </is>
